--- a/biology/Médecine/Quatrième_bruit_cardiaque/Quatrième_bruit_cardiaque.xlsx
+++ b/biology/Médecine/Quatrième_bruit_cardiaque/Quatrième_bruit_cardiaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quatri%C3%A8me_bruit_cardiaque</t>
+          <t>Quatrième_bruit_cardiaque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le quatrième bruit cardiaque ou B 4 (parfois S4 d'après le terme anglophone) est un bruit cardiaque supplémentaire qui se produit en fin de diastole, immédiatement avant les deux bruits cardiaques normaux « lub-dub » (S 1 et S 2 ). Il survient juste après la contraction auriculaire et immédiatement avant le B1 systolique physiologique. Il est provoquée par la contraction forcée des oreillettes dans le but de vaincre un ventricule anormalement raide ou hypertrophique.
 Cela produit un rythme classiquement comparé à la cadence du mot « Tennessee ». 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quatri%C3%A8me_bruit_cardiaque</t>
+          <t>Quatrième_bruit_cardiaque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bruits cardiaques normaux, B1 et B2, sont produits respectivement lors de la fermeture des valvules auriculo-ventriculaires et de la  valve aortique. La fermeture de ces vannes produit une brève période d'écoulement turbulent, qui produit du bruit.
-Le son  B4 apparaît immédiatement avant B1, alors que les oreillettes du cœur se contractent vigoureusement[1]. Cela se manifeste par une vibration de 20 à 30 Hz dans le ventricule[1]. Bien que le mécanisme ne soit pas absolument certain, il est généralement admis que B4 est provoqué par un raidissement des parois des ventricules (généralement gauche), qui produit un écoulement anormalement turbulent lorsque les oreillettes se contractent pour forcer le sang à entrer dans le ventricule. Cela se produit par exemple dans des conditions qui diminuent la compliance ventriculaire, comme l'hypertrophie ventriculaire gauche.
-B4 est parfois audible chez la personne âgée en raison d'un ventricule plus rigide. Lorsqu'il est fort, c'est le signe d'un état anormal[2], généralement une défaillance du ventricule gauche. Si le problème vient du ventricule gauche, le rythme du galop sera mieux entendu à la pointe du cœur. Cela deviendra plus évident avec l'exercice, le patient allongé sur le côté gauche ou avec le patient en attente d'expiration. Si le problème concerne le ventricule droit, le son anormal sera plus évident dans la partie inférieure gauche du sternum et deviendra plus fort avec l'exercice et une inspiration rapide et profonde[3].
+Le son  B4 apparaît immédiatement avant B1, alors que les oreillettes du cœur se contractent vigoureusement. Cela se manifeste par une vibration de 20 à 30 Hz dans le ventricule. Bien que le mécanisme ne soit pas absolument certain, il est généralement admis que B4 est provoqué par un raidissement des parois des ventricules (généralement gauche), qui produit un écoulement anormalement turbulent lorsque les oreillettes se contractent pour forcer le sang à entrer dans le ventricule. Cela se produit par exemple dans des conditions qui diminuent la compliance ventriculaire, comme l'hypertrophie ventriculaire gauche.
+B4 est parfois audible chez la personne âgée en raison d'un ventricule plus rigide. Lorsqu'il est fort, c'est le signe d'un état anormal, généralement une défaillance du ventricule gauche. Si le problème vient du ventricule gauche, le rythme du galop sera mieux entendu à la pointe du cœur. Cela deviendra plus évident avec l'exercice, le patient allongé sur le côté gauche ou avec le patient en attente d'expiration. Si le problème concerne le ventricule droit, le son anormal sera plus évident dans la partie inférieure gauche du sternum et deviendra plus fort avec l'exercice et une inspiration rapide et profonde.
 B4 a également été appelé « galop auriculaire » ou « galop présystolique » en raison de son apparition tardive dans le cycle cardiaque. L'autre rythme de galop est appelé B3. Les deux sont assez différents, mais ils peuvent parfois se produire ensemble formant un « quadruple galop ». Si la fréquence cardiaque est également très rapide ( tachycardie ), il peut devenir difficile de distinguer B3 de B4, produisant ainsi un son unique appelé « galop de sommation ».
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quatri%C3%A8me_bruit_cardiaque</t>
+          <t>Quatrième_bruit_cardiaque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bruit cardiaque B4 lui-même ne nécessite pas de traitement. Le bruit cardiaque S4 est une manifestation secondaire d’un processus pathologique primaire et le traitement doit être axé sur le traitement de la maladie primaire sous-jacente.
 </t>
